--- a/docs/LLM4SE.xlsx
+++ b/docs/LLM4SE.xlsx
@@ -14217,7 +14217,7 @@
         <v>116</v>
       </c>
       <c r="D5" s="21">
-        <v>45292.0</v>
+        <v>45383.0</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>513</v>

--- a/docs/LLM4SE.xlsx
+++ b/docs/LLM4SE.xlsx
@@ -101,25 +101,25 @@
     <t>RQ1</t>
   </si>
   <si>
+    <t>Quais tarefas de Engenharia de Software foram efetivamente abordadas com o uso de LLMs?</t>
+  </si>
+  <si>
+    <t>RQ2</t>
+  </si>
+  <si>
     <t>Quais LLMs foram usados recentemente momento para resolver tarefas de Engenharia de Software?</t>
   </si>
   <si>
-    <t>RQ2</t>
+    <t>RQ3</t>
   </si>
   <si>
     <t>Como os conjuntos de dados relacionados à Engenharia de Software são coletados, pré-processados ​​e usados ​​em LLMs?</t>
   </si>
   <si>
-    <t>RQ3</t>
+    <t>RQ4</t>
   </si>
   <si>
     <t>Quais técnicas são usadas para otimizar e avaliar LLMs aplicados à Engenharia de Software?</t>
-  </si>
-  <si>
-    <t>RQ4</t>
-  </si>
-  <si>
-    <t>Quais tarefas de Engenharia de Software foram efetivamente abordadas até o momento com o uso de LLMs?</t>
   </si>
   <si>
     <t>RQ5</t>
@@ -1729,6 +1729,149 @@
     <t>Data extraction</t>
   </si>
   <si>
+    <t>Identificação e classificação de débitos técnicos</t>
+  </si>
+  <si>
+    <t>Geração de code contract</t>
+  </si>
+  <si>
+    <t>Geração de mensagem de commit</t>
+  </si>
+  <si>
+    <t>Geração de comentários em smart contracts</t>
+  </si>
+  <si>
+    <t>Inspeção automatizada de warnings de análise estática</t>
+  </si>
+  <si>
+    <t>Recomendação de atualizações de código</t>
+  </si>
+  <si>
+    <t>Sumarização de código (na forma de geração de documentação)</t>
+  </si>
+  <si>
+    <t>- Sumarização de código (foco do estudo)
+- Geração de código
+- Revisão de código
+- Compreensão de programas
+- Detecção de clones de código
+- Correção de bugs / classificação de commits
+- Reparo de vulnerabilidades
+- Documentação automatizada de código</t>
+  </si>
+  <si>
+    <t>- Detecção estática de bugs (e.g., Null Dereference, Resource Leak)
+- Remoção de falsos positivos</t>
+  </si>
+  <si>
+    <t>- Categorização de histórias de usuários (foco do estudo)
+- Classificação de requisitos (funcionais, não-funcionais)
+- Geração de código
+- Levantamento e análise automatizados de requisitos
+- Planejamento ágil de projetos (ex.: AUTOSCRUM)</t>
+  </si>
+  <si>
+    <t>Análise estática e avaliação da qualidade do código</t>
+  </si>
+  <si>
+    <t>Predição de nome de método</t>
+  </si>
+  <si>
+    <t>- Geração de código
+- Preenchimento automático de código
+- Reparo de programas</t>
+  </si>
+  <si>
+    <t>Tópicos em engenharia de requisitos:
+- Elicitação de requisitos
+- Sumarização de requisitos
+- Garantia de qualidade (QA) (detecção de smells, checagem de completude)
+- Classificação de requisitos
+- Rastreamento de requisitos
+- Geração de modelos gráficos
+- Análise de feedback de usuários</t>
+  </si>
+  <si>
+    <t>Elicitação de requisitos</t>
+  </si>
+  <si>
+    <t>- Engenharia de requisitos
+- Desenvolvimento e manutenção de software
+- Garantia da qualidade de software
+- Tarefas de validação e testes
+- Documentação
+- Gerenciamento de riscos</t>
+  </si>
+  <si>
+    <t>Geração de código</t>
+  </si>
+  <si>
+    <t>Sumarização de código</t>
+  </si>
+  <si>
+    <t>- Desenvolvimento de software
+- Testes de software
+- Manutenção de software
+- Projeto de software
+- Reparo Automático de Programas (APR) e bugfixes
+- Aprimoramento da qualidade do código
+- Geração de especificações formais a partir de linguagem natural
+- Levantamento e classificação de requisitos</t>
+  </si>
+  <si>
+    <t>Genetic Improvement (GI) de propriedades não-funcionais</t>
+  </si>
+  <si>
+    <t>- Engenharia de requisitos
+- Geração de código
+- Testes de software
+- Manutenção de software
+- Geração de documentação de software
+- Interação humano-computador</t>
+  </si>
+  <si>
+    <t>Geração e assistência de código com base em consultas em linguagem natural.</t>
+  </si>
+  <si>
+    <t>Engenharia de requisitos</t>
+  </si>
+  <si>
+    <t>Geração de testes unitários (em Java)</t>
+  </si>
+  <si>
+    <t>Geração de programas (reparo de código, code review, tradução de código, geração de código a partir de texto (text-to-code)</t>
+  </si>
+  <si>
+    <t>- Completude de modelo
+- Geração do modelo
+- Busca de modelos
+- Operações de gerenciamento de modelos
+- Modelagem de objetivos
+- Especificação de requisitos de DSL
+- Geração de arquitetura de software
+- Detecção de plágio em tarefas de modelagem</t>
+  </si>
+  <si>
+    <t>- Geração de código
+- Documentação de código
+- Testes
+- Raciocínio interativo</t>
+  </si>
+  <si>
+    <t>Tópicos em teste de software:
+- Geração de casos de teste unitários
+- Geração de inputs de teste
+- Análise de bugs
+- Debugging
+- Reparo de programa</t>
+  </si>
+  <si>
+    <t>Geração de código a partir de descrições em linguagem natural</t>
+  </si>
+  <si>
+    <t>Completude de código</t>
+  </si>
+  <si>
     <t>BERT, CodeBERT, Flan-T5</t>
   </si>
   <si>
@@ -2366,149 +2509,6 @@
 - Speedup e Layers skipped</t>
   </si>
   <si>
-    <t>Identificação e classificação de débitos técnicos</t>
-  </si>
-  <si>
-    <t>Geração de code contract</t>
-  </si>
-  <si>
-    <t>Geração de mensagem de commit</t>
-  </si>
-  <si>
-    <t>Geração de comentários em smart contracts</t>
-  </si>
-  <si>
-    <t>Inspeção automatizada de warnings de análise estática</t>
-  </si>
-  <si>
-    <t>Recomendação de atualizações de código</t>
-  </si>
-  <si>
-    <t>Sumarização de código (na forma de geração de documentação)</t>
-  </si>
-  <si>
-    <t>- Sumarização de código (foco do estudo)
-- Geração de código
-- Revisão de código
-- Compreensão de programas
-- Detecção de clones de código
-- Correção de bugs / classificação de commits
-- Reparo de vulnerabilidades
-- Documentação automatizada de código</t>
-  </si>
-  <si>
-    <t>- Detecção estática de bugs (e.g., Null Dereference, Resource Leak)
-- Remoção de falsos positivos</t>
-  </si>
-  <si>
-    <t>- Categorização de histórias de usuários (foco do estudo)
-- Classificação de requisitos (funcionais, não-funcionais)
-- Geração de código
-- Levantamento e análise automatizados de requisitos
-- Planejamento ágil de projetos (ex.: AUTOSCRUM)</t>
-  </si>
-  <si>
-    <t>Análise estática e avaliação da qualidade do código</t>
-  </si>
-  <si>
-    <t>Predição de nome de método</t>
-  </si>
-  <si>
-    <t>- Geração de código
-- Preenchimento automático de código
-- Reparo de programas</t>
-  </si>
-  <si>
-    <t>Tópicos em engenharia de requisitos:
-- Elicitação de requisitos
-- Sumarização de requisitos
-- Garantia de qualidade (QA) (detecção de smells, checagem de completude)
-- Classificação de requisitos
-- Rastreamento de requisitos
-- Geração de modelos gráficos
-- Análise de feedback de usuários</t>
-  </si>
-  <si>
-    <t>Elicitação de requisitos</t>
-  </si>
-  <si>
-    <t>- Engenharia de requisitos
-- Desenvolvimento e manutenção de software
-- Garantia da qualidade de software
-- Tarefas de validação e testes
-- Documentação
-- Gerenciamento de riscos</t>
-  </si>
-  <si>
-    <t>Geração de código</t>
-  </si>
-  <si>
-    <t>Sumarização de código</t>
-  </si>
-  <si>
-    <t>- Desenvolvimento de software
-- Testes de software
-- Manutenção de software
-- Projeto de software
-- Reparo Automático de Programas (APR) e bugfixes
-- Aprimoramento da qualidade do código
-- Geração de especificações formais a partir de linguagem natural
-- Levantamento e classificação de requisitos</t>
-  </si>
-  <si>
-    <t>Genetic Improvement (GI) de propriedades não-funcionais</t>
-  </si>
-  <si>
-    <t>- Engenharia de requisitos
-- Geração de código
-- Testes de software
-- Manutenção de software
-- Geração de documentação de software
-- Interação humano-computador</t>
-  </si>
-  <si>
-    <t>Geração e assistência de código com base em consultas em linguagem natural.</t>
-  </si>
-  <si>
-    <t>Engenharia de requisitos</t>
-  </si>
-  <si>
-    <t>Geração de testes unitários (em Java)</t>
-  </si>
-  <si>
-    <t>Geração de programas (reparo de código, code review, tradução de código, geração de código a partir de texto (text-to-code)</t>
-  </si>
-  <si>
-    <t>- Completude de modelo
-- Geração do modelo
-- Busca de modelos
-- Operações de gerenciamento de modelos
-- Modelagem de objetivos
-- Especificação de requisitos de DSL
-- Geração de arquitetura de software
-- Detecção de plágio em tarefas de modelagem</t>
-  </si>
-  <si>
-    <t>- Geração de código
-- Documentação de código
-- Testes
-- Raciocínio interativo</t>
-  </si>
-  <si>
-    <t>Tópicos em teste de software:
-- Geração de casos de teste unitários
-- Geração de inputs de teste
-- Análise de bugs
-- Debugging
-- Reparo de programa</t>
-  </si>
-  <si>
-    <t>Geração de código a partir de descrições em linguagem natural</t>
-  </si>
-  <si>
-    <t>Completude de código</t>
-  </si>
-  <si>
     <t>- Fine tuning com 1 camada de classificação para melhor desempenho em conjuntos de dados pequenos
 - Utilização de modelos maiores (por exemplo, Flan-T5-XL) para lidar com entradas complexas e características contextuais
 - Métodos de ensemble combinando múltiplos inputs para maior precisão
@@ -2769,7 +2769,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2841,6 +2841,12 @@
     </font>
     <font>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -2991,18 +2997,18 @@
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3592,23 +3598,23 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="30.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="32.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="30.75" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" ht="30.75" customHeight="1">
+    <row r="5" ht="30.0" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" ht="31.5" customHeight="1">
+    <row r="6" ht="30.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>33</v>
       </c>
@@ -3624,6 +3630,7 @@
         <v>34</v>
       </c>
     </row>
+    <row r="7" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -15148,6 +15155,396 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="2" max="2" width="99.38"/>
+    <col customWidth="1" min="3" max="3" width="76.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22.5" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" customHeight="1">
+      <c r="A2" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" ht="36.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="15" ht="61.5" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" ht="27.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="20" ht="29.25" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" ht="27.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>591</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
     <col customWidth="1" min="1" max="1" width="12.38"/>
     <col customWidth="1" min="2" max="2" width="93.63"/>
     <col customWidth="1" min="3" max="3" width="71.0"/>
@@ -15172,7 +15569,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1">
@@ -15183,7 +15580,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1">
@@ -15194,7 +15591,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1">
@@ -15205,31 +15602,31 @@
         <v>115</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="26"/>
+        <v>595</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" ht="22.5" customHeight="1">
       <c r="A6" s="13" t="s">
@@ -15239,31 +15636,31 @@
         <v>117</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>566</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
+        <v>596</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" ht="22.5" customHeight="1">
       <c r="A7" s="13" t="s">
@@ -15272,8 +15669,8 @@
       <c r="B7" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>567</v>
+      <c r="C7" s="26" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1">
@@ -15284,7 +15681,7 @@
         <v>131</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1">
@@ -15295,7 +15692,7 @@
         <v>157</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1">
@@ -15305,8 +15702,8 @@
       <c r="B10" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>570</v>
+      <c r="C10" s="26" t="s">
+        <v>600</v>
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
@@ -15340,31 +15737,31 @@
         <v>211</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>571</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
+        <v>601</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" ht="22.5" customHeight="1">
       <c r="A12" s="13" t="s">
@@ -15374,7 +15771,7 @@
         <v>213</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -15408,31 +15805,31 @@
         <v>217</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+        <v>603</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" ht="22.5" customHeight="1">
       <c r="A14" s="13" t="s">
@@ -15442,31 +15839,31 @@
         <v>229</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+        <v>600</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
     <row r="15" ht="22.5" customHeight="1">
       <c r="A15" s="13" t="s">
@@ -15476,7 +15873,7 @@
         <v>235</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1">
@@ -15487,7 +15884,7 @@
         <v>254</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1">
@@ -15498,7 +15895,7 @@
         <v>262</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1">
@@ -15509,31 +15906,31 @@
         <v>264</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
+        <v>607</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
     </row>
     <row r="19" ht="22.5" customHeight="1">
       <c r="A19" s="13" t="s">
@@ -15543,7 +15940,7 @@
         <v>268</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1">
@@ -15554,7 +15951,7 @@
         <v>284</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>579</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1">
@@ -15565,31 +15962,31 @@
         <v>288</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
+        <v>610</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
     </row>
     <row r="22" ht="22.5" customHeight="1">
       <c r="A22" s="13" t="s">
@@ -15599,7 +15996,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>581</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" ht="22.5" customHeight="1">
@@ -15610,7 +16007,7 @@
         <v>310</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" ht="22.5" customHeight="1">
@@ -15621,7 +16018,7 @@
         <v>315</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>582</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" ht="22.5" customHeight="1">
@@ -15632,7 +16029,7 @@
         <v>343</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>583</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" ht="22.5" customHeight="1">
@@ -15643,7 +16040,7 @@
         <v>373</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>584</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" ht="22.5" customHeight="1">
@@ -15654,7 +16051,7 @@
         <v>377</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>585</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" ht="22.5" customHeight="1">
@@ -15665,7 +16062,7 @@
         <v>379</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>586</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" ht="22.5" customHeight="1">
@@ -15676,7 +16073,7 @@
         <v>407</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>587</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" ht="22.5" customHeight="1">
@@ -15687,7 +16084,7 @@
         <v>411</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31" ht="22.5" customHeight="1">
@@ -15697,8 +16094,8 @@
       <c r="B31" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="C31" s="27" t="s">
-        <v>588</v>
+      <c r="C31" s="26" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="32" ht="22.5" customHeight="1">
@@ -15709,7 +16106,7 @@
         <v>481</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>589</v>
+        <v>619</v>
       </c>
     </row>
     <row r="33" ht="22.5" customHeight="1">
@@ -15720,397 +16117,7 @@
         <v>499</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>590</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
-    <col customWidth="1" min="2" max="2" width="99.38"/>
-    <col customWidth="1" min="3" max="3" width="75.5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="5" ht="25.5" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="6" ht="29.25" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="7" ht="42.75" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" ht="35.25" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="9" ht="32.25" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="11" ht="38.25" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="15" ht="22.5" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="17" ht="22.5" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="18" ht="30.75" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="19" ht="30.0" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="20" ht="22.5" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="21" ht="30.75" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="23" ht="31.5" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="25" ht="26.25" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="26" ht="31.5" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="27" ht="29.25" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="29" ht="29.25" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="30" ht="27.75" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="31" ht="22.5" customHeight="1">
-      <c r="A31" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" s="27" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="13" t="s">
-        <v>557</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C33" s="27" t="s">
-        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -16137,1043 +16144,371 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="5.88"/>
     <col customWidth="1" min="2" max="2" width="99.38"/>
-    <col customWidth="1" min="3" max="3" width="75.75"/>
+    <col customWidth="1" min="3" max="3" width="75.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" ht="102.0" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" ht="30.0" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="13" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1">
+      <c r="A3" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="4" ht="24.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-    </row>
-    <row r="3" ht="120.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="33" t="s">
+    </row>
+    <row r="5" ht="25.5" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-    </row>
-    <row r="4" ht="96.75" customHeight="1">
-      <c r="A4" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="33" t="s">
+    </row>
+    <row r="6" ht="29.25" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-    </row>
-    <row r="5" ht="139.5" customHeight="1">
-      <c r="A5" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="33" t="s">
+    </row>
+    <row r="7" ht="42.75" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-    </row>
-    <row r="6" ht="146.25" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="33" t="s">
+    </row>
+    <row r="8" ht="35.25" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-    </row>
-    <row r="7" ht="126.0" customHeight="1">
-      <c r="A7" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="33" t="s">
+    </row>
+    <row r="9" ht="32.25" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-      <c r="X7" s="28"/>
-    </row>
-    <row r="8" ht="186.75" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="33" t="s">
+    </row>
+    <row r="10" ht="35.25" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-    </row>
-    <row r="9" ht="135.75" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="33" t="s">
+    </row>
+    <row r="11" ht="38.25" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-    </row>
-    <row r="10" ht="119.25" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="33" t="s">
+    </row>
+    <row r="12" ht="22.5" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-    </row>
-    <row r="11" ht="116.25" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="33" t="s">
+    </row>
+    <row r="13" ht="22.5" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-    </row>
-    <row r="12" ht="69.0" customHeight="1">
-      <c r="A12" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="33" t="s">
+    </row>
+    <row r="14" ht="30.0" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-    </row>
-    <row r="13" ht="150.0" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>528</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="33" t="s">
+    </row>
+    <row r="15" ht="22.5" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-    </row>
-    <row r="14" ht="57.75" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="33" t="s">
+    </row>
+    <row r="16" ht="22.5" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-    </row>
-    <row r="15" ht="124.5" customHeight="1">
-      <c r="A15" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="33" t="s">
+    </row>
+    <row r="17" ht="22.5" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-    </row>
-    <row r="16" ht="138.75" customHeight="1">
-      <c r="A16" s="17" t="s">
-        <v>532</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="33" t="s">
+    </row>
+    <row r="18" ht="30.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-    </row>
-    <row r="17" ht="180.75" customHeight="1">
-      <c r="A17" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="33" t="s">
+    </row>
+    <row r="19" ht="30.0" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="13" t="s">
         <v>638</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-    </row>
-    <row r="18" ht="126.75" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="33" t="s">
+    </row>
+    <row r="20" ht="22.5" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-    </row>
-    <row r="19" ht="111.0" customHeight="1">
-      <c r="A19" s="17" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="33" t="s">
+    </row>
+    <row r="21" ht="30.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>640</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-    </row>
-    <row r="20" ht="124.5" customHeight="1">
-      <c r="A20" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="33" t="s">
+    </row>
+    <row r="22" ht="22.5" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-    </row>
-    <row r="21" ht="162.75" customHeight="1">
-      <c r="A21" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="33" t="s">
+    </row>
+    <row r="23" ht="31.5" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>642</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-    </row>
-    <row r="22" ht="186.75" customHeight="1">
-      <c r="A22" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="33" t="s">
+    </row>
+    <row r="24" ht="22.5" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-    </row>
-    <row r="23" ht="127.5" customHeight="1">
-      <c r="A23" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="33" t="s">
+    </row>
+    <row r="25" ht="26.25" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-    </row>
-    <row r="24" ht="95.25" customHeight="1">
-      <c r="A24" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="34" t="s">
+    </row>
+    <row r="26" ht="31.5" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-    </row>
-    <row r="25" ht="144.75" customHeight="1">
-      <c r="A25" s="17" t="s">
-        <v>547</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="33" t="s">
+    </row>
+    <row r="27" ht="29.25" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-    </row>
-    <row r="26" ht="116.25" customHeight="1">
-      <c r="A26" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="33" t="s">
+    </row>
+    <row r="28" ht="22.5" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-    </row>
-    <row r="27" ht="128.25" customHeight="1">
-      <c r="A27" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="33" t="s">
+    </row>
+    <row r="29" ht="29.25" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>648</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-    </row>
-    <row r="28" ht="143.25" customHeight="1">
-      <c r="A28" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="33" t="s">
+    </row>
+    <row r="30" ht="27.75" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-    </row>
-    <row r="29" ht="169.5" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C29" s="33" t="s">
+    </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>650</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-    </row>
-    <row r="30" ht="105.0" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" s="27" t="s">
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-    </row>
-    <row r="31" ht="232.5" customHeight="1">
-      <c r="A31" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="C31" s="33" t="s">
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>652</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-    </row>
-    <row r="32" ht="171.75" customHeight="1">
-      <c r="A32" s="17" t="s">
-        <v>557</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>653</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="23"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="23"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>654</v>
-      </c>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
@@ -17197,373 +16532,1045 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.88"/>
+    <col customWidth="1" min="1" max="1" width="8.75"/>
     <col customWidth="1" min="2" max="2" width="99.38"/>
-    <col customWidth="1" min="3" max="3" width="76.25"/>
+    <col customWidth="1" min="3" max="3" width="75.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="30" t="s">
         <v>503</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="31" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" ht="102.0" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="33" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+    </row>
+    <row r="3" ht="120.75" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>654</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+    </row>
+    <row r="4" ht="96.75" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+    </row>
+    <row r="5" ht="139.5" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1">
-      <c r="A4" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+    </row>
+    <row r="6" ht="146.25" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="33" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="5" ht="22.5" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="13" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+    </row>
+    <row r="7" ht="126.0" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="6" ht="22.5" customHeight="1">
-      <c r="A6" s="13" t="s">
-        <v>514</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
+      <c r="X7" s="28"/>
+    </row>
+    <row r="8" ht="186.75" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="33" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+    </row>
+    <row r="9" ht="135.75" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="28"/>
+      <c r="X9" s="28"/>
+    </row>
+    <row r="10" ht="119.25" customHeight="1">
+      <c r="A10" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="9" ht="36.75" customHeight="1">
-      <c r="A9" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="13" t="s">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+    </row>
+    <row r="11" ht="116.25" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="10" ht="22.5" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+    </row>
+    <row r="12" ht="69.0" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+    </row>
+    <row r="13" ht="150.0" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="12" ht="22.5" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C12" s="13" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+    </row>
+    <row r="14" ht="57.75" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+    </row>
+    <row r="15" ht="124.5" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="14" ht="22.5" customHeight="1">
-      <c r="A14" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+    </row>
+    <row r="16" ht="138.75" customHeight="1">
+      <c r="A16" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="15" ht="61.5" customHeight="1">
-      <c r="A15" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+    </row>
+    <row r="17" ht="180.75" customHeight="1">
+      <c r="A17" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1">
-      <c r="A16" s="13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+    </row>
+    <row r="18" ht="126.75" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="17" ht="27.75" customHeight="1">
-      <c r="A17" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+    </row>
+    <row r="19" ht="111.0" customHeight="1">
+      <c r="A19" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="18" ht="22.5" customHeight="1">
-      <c r="A18" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+    </row>
+    <row r="20" ht="124.5" customHeight="1">
+      <c r="A20" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="19" ht="22.5" customHeight="1">
-      <c r="A19" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" ht="162.75" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="20" ht="29.25" customHeight="1">
-      <c r="A20" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="13" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" ht="186.75" customHeight="1">
+      <c r="A22" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>540</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" ht="127.5" customHeight="1">
+      <c r="A23" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="13" t="s">
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+    </row>
+    <row r="24" ht="95.25" customHeight="1">
+      <c r="A24" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="13" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" ht="144.75" customHeight="1">
+      <c r="A25" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="33" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="24" ht="22.5" customHeight="1">
-      <c r="A24" s="13" t="s">
-        <v>546</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C24" s="27" t="s">
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" ht="116.25" customHeight="1">
+      <c r="A26" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="13" t="s">
-        <v>547</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+    </row>
+    <row r="27" ht="128.25" customHeight="1">
+      <c r="A27" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+    </row>
+    <row r="28" ht="143.25" customHeight="1">
+      <c r="A28" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="28" ht="27.75" customHeight="1">
-      <c r="A28" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" ht="169.5" customHeight="1">
+      <c r="A29" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1">
-      <c r="A29" s="13" t="s">
-        <v>553</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" ht="105.0" customHeight="1">
+      <c r="A30" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="30" ht="22.5" customHeight="1">
-      <c r="A30" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="A31" s="13" t="s">
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+    </row>
+    <row r="31" ht="232.5" customHeight="1">
+      <c r="A31" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="33" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+    </row>
+    <row r="32" ht="171.75" customHeight="1">
+      <c r="A32" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="33" t="s">
         <v>683</v>
       </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="23"/>
     </row>
     <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="33" t="s">
         <v>684</v>
       </c>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
     </row>
   </sheetData>
   <printOptions gridLines="1" horizontalCentered="1"/>
